--- a/Data/NREL 2019 Survey Data/tsdc-2019-california-vehicle-survey-data-dictionary.xlsx
+++ b/Data/NREL 2019 Survey Data/tsdc-2019-california-vehicle-survey-data-dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jthomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2f2af9ab8037793/UCB/UCB_Classwork/Final Project/Energy_Analysis/Data/NREL 2019 Survey Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70A20C4-D8F5-479A-8F8F-DD324A74495F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E70A20C4-D8F5-479A-8F8F-DD324A74495F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{027D2170-6516-4CAA-877F-C6DE0C2BF2D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVS_Com_DCE" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,22 @@
     <sheet name="CVS_Res_PEV" sheetId="10" r:id="rId10"/>
     <sheet name="CVS_Res_Veh" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CVS_Res_Main!$A$1:$D$1216</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -9612,7 +9624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -14148,7 +14160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -49196,7 +49208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -53834,7 +53846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -56386,9 +56398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D1216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -73422,6 +73432,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1216" xr:uid="{6EB81DB7-504A-4E1D-A914-EA4BB087C13F}"/>
   <conditionalFormatting sqref="A2:D15 A17:D1216">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>$A3&lt;&gt;""</formula>
@@ -73450,7 +73461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
